--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>картошка</t>
   </si>
@@ -42,9 +42,6 @@
     <t>яблоко</t>
   </si>
   <si>
-    <t>хлеб черный</t>
-  </si>
-  <si>
     <t>хлеб белый</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>макароны</t>
   </si>
   <si>
-    <t>тушенка</t>
-  </si>
-  <si>
     <t>марковь</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>перец</t>
   </si>
   <si>
-    <t>борщ с тушенкой</t>
-  </si>
-  <si>
     <t>свекла</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>салат с кукурузой</t>
   </si>
   <si>
-    <t>каша овсяная</t>
-  </si>
-  <si>
     <t>рисовая каша</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>лимон</t>
   </si>
   <si>
-    <t>салат с кукурузойи зеленью</t>
-  </si>
-  <si>
     <t>салат с зеленью</t>
   </si>
   <si>
@@ -211,6 +196,21 @@
   </si>
   <si>
     <t>суп рыбный</t>
+  </si>
+  <si>
+    <t>хлеб чёрный</t>
+  </si>
+  <si>
+    <t>салат с кукурузой и зеленью</t>
+  </si>
+  <si>
+    <t>овсяная каша</t>
+  </si>
+  <si>
+    <t>борщ с тушёнкой</t>
+  </si>
+  <si>
+    <t>тушёнка</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -587,7 +587,7 @@
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -596,7 +596,7 @@
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>15</v>
@@ -605,7 +605,7 @@
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -614,7 +614,7 @@
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -623,7 +623,7 @@
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
@@ -670,7 +670,7 @@
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>80</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -690,7 +690,7 @@
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>50</v>
@@ -699,7 +699,7 @@
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>30</v>
@@ -708,7 +708,7 @@
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -737,7 +737,7 @@
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>35</v>
@@ -746,7 +746,7 @@
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
@@ -754,79 +754,95 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C22" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C24" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C25" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -873,7 +889,7 @@
     </row>
     <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
@@ -902,10 +918,10 @@
     </row>
     <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
         <v>100</v>
@@ -914,7 +930,7 @@
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3">
         <v>50</v>
@@ -932,7 +948,7 @@
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3">
         <v>25</v>
@@ -941,7 +957,7 @@
     <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3">
         <v>10</v>
@@ -949,7 +965,7 @@
     </row>
     <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
@@ -961,7 +977,7 @@
     <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44" s="3">
         <v>35</v>
@@ -970,7 +986,7 @@
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" s="3">
         <v>50</v>
@@ -979,7 +995,7 @@
     <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -987,10 +1003,10 @@
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3">
         <v>25</v>
@@ -1026,7 +1042,7 @@
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="3">
         <v>15</v>
@@ -1034,10 +1050,10 @@
     </row>
     <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="3">
         <v>80</v>
@@ -1046,7 +1062,7 @@
     <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C53" s="3">
         <v>50</v>
@@ -1072,7 +1088,7 @@
     </row>
     <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>5</v>
@@ -1084,7 +1100,7 @@
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57" s="3">
         <v>35</v>
@@ -1093,7 +1109,7 @@
     <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" s="3">
         <v>30</v>
@@ -1101,7 +1117,7 @@
     </row>
     <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3</v>
@@ -1113,7 +1129,7 @@
     <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C60" s="3">
         <v>50</v>
@@ -1139,7 +1155,7 @@
     </row>
     <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
@@ -1151,7 +1167,7 @@
     <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3">
         <v>50</v>
@@ -1160,7 +1176,7 @@
     <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65" s="3">
         <v>35</v>
@@ -1169,7 +1185,7 @@
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -1177,7 +1193,7 @@
     </row>
     <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
@@ -1207,7 +1223,7 @@
     <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3">
         <v>80</v>
@@ -1216,7 +1232,7 @@
     <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C71" s="3">
         <v>10</v>
@@ -1225,7 +1241,7 @@
     <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C72" s="3">
         <v>5</v>
@@ -1233,7 +1249,7 @@
     </row>
     <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>5</v>
@@ -1254,7 +1270,7 @@
     <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75" s="3">
         <v>35</v>
@@ -1263,7 +1279,7 @@
     <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C76" s="3">
         <v>30</v>
@@ -1271,7 +1287,7 @@
     </row>
     <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
@@ -1283,7 +1299,7 @@
     <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C78" s="3">
         <v>35</v>
@@ -1310,7 +1326,7 @@
     <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C81" s="3">
         <v>15</v>
@@ -1319,7 +1335,7 @@
     <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" s="3">
         <v>10</v>
@@ -1327,10 +1343,10 @@
     </row>
     <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C83" s="3">
         <v>50</v>
@@ -1339,7 +1355,7 @@
     <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C84" s="3">
         <v>35</v>
@@ -1347,7 +1363,7 @@
     </row>
     <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>3</v>
@@ -1358,10 +1374,10 @@
     </row>
     <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C86" s="3">
         <v>40</v>
@@ -1370,7 +1386,7 @@
     <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C87" s="3">
         <v>15</v>
@@ -1378,10 +1394,10 @@
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
@@ -1390,7 +1406,7 @@
     <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C89" s="3">
         <v>15</v>
@@ -1399,7 +1415,7 @@
     <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -1408,7 +1424,7 @@
     <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C91" s="3">
         <v>20</v>
@@ -1416,10 +1432,10 @@
     </row>
     <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92" s="3">
         <v>40</v>
@@ -1428,7 +1444,7 @@
     <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C93" s="3">
         <v>35</v>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>картошка</t>
   </si>
@@ -42,9 +42,6 @@
     <t>яблоко</t>
   </si>
   <si>
-    <t>хлеб белый</t>
-  </si>
-  <si>
     <t>сыр</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
     <t>макароны</t>
   </si>
   <si>
+    <t>тушенка</t>
+  </si>
+  <si>
     <t>марковь</t>
   </si>
   <si>
@@ -75,9 +75,6 @@
     <t>зелень</t>
   </si>
   <si>
-    <t>суп гороховый с гренк.</t>
-  </si>
-  <si>
     <t>горох</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
     <t>перец</t>
   </si>
   <si>
+    <t>борщ с тушенкой</t>
+  </si>
+  <si>
     <t>свекла</t>
   </si>
   <si>
@@ -132,9 +132,6 @@
     <t>изюм</t>
   </si>
   <si>
-    <t>каша кукурузная</t>
-  </si>
-  <si>
     <t>чеснок</t>
   </si>
   <si>
@@ -192,25 +189,28 @@
     <t>плов с курицей</t>
   </si>
   <si>
-    <t>суп сырный с гренками</t>
-  </si>
-  <si>
-    <t>суп рыбный</t>
-  </si>
-  <si>
-    <t>хлеб чёрный</t>
-  </si>
-  <si>
     <t>салат с кукурузой и зеленью</t>
   </si>
   <si>
     <t>овсяная каша</t>
   </si>
   <si>
-    <t>борщ с тушёнкой</t>
-  </si>
-  <si>
-    <t>тушёнка</t>
+    <t>белый хлеб</t>
+  </si>
+  <si>
+    <t>рыбный суп</t>
+  </si>
+  <si>
+    <t>гороховый суп с гренками</t>
+  </si>
+  <si>
+    <t>кукурузная каша</t>
+  </si>
+  <si>
+    <t>сырный суп с гренками</t>
+  </si>
+  <si>
+    <t>черный хлеб</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -587,7 +587,7 @@
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -596,7 +596,7 @@
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>15</v>
@@ -605,7 +605,7 @@
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -623,7 +623,7 @@
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
@@ -670,7 +670,7 @@
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3">
         <v>80</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -699,7 +699,7 @@
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>30</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3">
         <v>30</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3">
         <v>25</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>30</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <v>10</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3">
         <v>30</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3">
         <v>30</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3">
         <v>30</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -887,7 +887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -898,7 +898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -916,27 +916,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>2</v>
@@ -945,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>13</v>
@@ -953,8 +953,12 @@
       <c r="C41" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="S41">
+        <f ca="1">E41:S45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>14</v>
@@ -963,173 +967,172 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C43" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C48" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C53" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C54" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C57" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C58" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C60" s="3">
         <v>50</v>
@@ -1138,315 +1141,277 @@
     <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C61" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C62" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63" s="3">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C64" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C66" s="3">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C67" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C68" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="3">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C73" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C75" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C76" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C77" s="3">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C78" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
+      <c r="A79" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C79" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C80" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="3">
-        <v>50</v>
-      </c>
-    </row>
     <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="3">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C85" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C87" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C88" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C89" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="3">
         <v>35</v>
       </c>
     </row>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>картошка</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>яйца</t>
-  </si>
-  <si>
-    <t xml:space="preserve">колбаса </t>
   </si>
   <si>
     <t>молоко</t>
@@ -545,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -631,7 +628,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -678,7 +675,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -754,10 +751,10 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3">
         <v>30</v>
@@ -809,10 +806,10 @@
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3">
         <v>30</v>
@@ -820,10 +817,10 @@
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3">
         <v>30</v>
@@ -831,10 +828,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3">
         <v>30</v>
@@ -842,7 +839,7 @@
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -918,7 +915,7 @@
     </row>
     <row r="38" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -969,7 +966,7 @@
     </row>
     <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>5</v>
@@ -1308,7 +1305,7 @@
     </row>
     <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>42</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>44</v>
@@ -1371,7 +1368,7 @@
     <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3">
         <v>15</v>
@@ -1380,7 +1377,7 @@
     <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -1389,7 +1386,7 @@
     <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="3">
         <v>20</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>15</v>
